--- a/자유수강권자 환불/방송댄스(강사).xlsx
+++ b/자유수강권자 환불/방송댄스(강사).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="101">
   <si>
     <t>주야</t>
   </si>
@@ -685,9 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1212,8 +1214,8 @@
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>51</v>
+      <c r="D23" s="1">
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>52</v>
@@ -1785,13 +1787,13 @@
         <v>87</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>12</v>
@@ -1811,10 +1813,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>12</v>
@@ -1831,13 +1833,13 @@
         <v>87</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>12</v>
@@ -1857,10 +1859,10 @@
         <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>12</v>
@@ -1880,10 +1882,10 @@
         <v>26</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>12</v>
@@ -1900,13 +1902,13 @@
         <v>87</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>12</v>
@@ -1926,10 +1928,10 @@
         <v>78</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>12</v>
@@ -1943,16 +1945,16 @@
         <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>12</v>
@@ -1972,10 +1974,10 @@
         <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>12</v>
@@ -1995,10 +1997,10 @@
         <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>12</v>
@@ -2015,41 +2017,18 @@
         <v>95</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="13.5">
-      <c r="A59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="1" t="s">
         <v>12</v>
       </c>
     </row>
